--- a/gamsWorkSpace/inputData.xlsx
+++ b/gamsWorkSpace/inputData.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -955,4 +957,1502 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>t0924</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>t0925</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>t0926</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>t0927</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t0928</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t0929</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>t0930</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>t1001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>t1002</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>t1003</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>t1004</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>t1005</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>t1006</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>t1007</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>t1008</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>t1009</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>t1010</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>t1011</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>t1012</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>t1013</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>t1014</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>t1015</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>t1016</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>t1017</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>t1018</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>t1019</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>t1020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>t1021</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>t1022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>t1023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>t1024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>t1025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>t1026</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>t1027</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>t1028</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>t1029</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>t1030</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>t1031</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>t1101</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>t1102</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>t1103</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>t1104</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>t1105</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>w0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>w1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>w2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>w3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>w4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>w5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>w6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>t0924</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>t0925</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>t0926</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>t0927</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t0928</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t0929</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>t0930</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>t1001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>t1002</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>t1003</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>t1004</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>t1005</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>t1006</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>t1007</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>t1008</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>t1009</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>t1010</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>t1011</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>t1012</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>t1013</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>t1014</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>t1015</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>t1016</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>t1017</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>t1018</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>t1019</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>t1020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>t1021</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>t1022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>t1023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>t1024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>t1025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>t1026</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>t1027</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>t1028</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>t1029</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>t1030</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>t1031</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>t1101</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>t1102</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>t1103</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>t1104</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>t1105</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/gamsWorkSpace/inputData.xlsx
+++ b/gamsWorkSpace/inputData.xlsx
@@ -11,6 +11,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet7" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1714,7 +1717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1763,6 +1766,11 @@
           <t>w6</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>w7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1779,6 +1787,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1795,6 +1804,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1811,6 +1821,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1827,6 +1838,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1843,6 +1855,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1859,6 +1872,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1875,6 +1889,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1891,6 +1906,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1907,6 +1923,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1923,6 +1940,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1939,6 +1957,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1955,6 +1974,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1971,6 +1991,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1987,6 +2008,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2003,6 +2025,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2019,6 +2042,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2035,6 +2059,7 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2051,6 +2076,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2067,6 +2093,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2083,6 +2110,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2099,6 +2127,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2115,6 +2144,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2131,6 +2161,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2147,6 +2178,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2163,6 +2195,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2179,6 +2212,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2195,6 +2229,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2211,6 +2246,7 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2227,6 +2263,7 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2243,6 +2280,7 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2259,6 +2297,7 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2275,6 +2314,7 @@
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2291,6 +2331,7 @@
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2307,6 +2348,7 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2323,6 +2365,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2339,6 +2382,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2355,6 +2399,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2371,6 +2416,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2387,6 +2433,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2403,6 +2450,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2419,6 +2467,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2435,6 +2484,7 @@
       <c r="H43" t="n">
         <v>1</v>
       </c>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2451,6 +2501,1320 @@
       <c r="H44" t="n">
         <v>1</v>
       </c>
+      <c r="I44" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TVM</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>TAM</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TFM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>t0924</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>t0925</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>t0926</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>t0927</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t0928</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t0929</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>t0930</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>t1001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>t1002</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>t1003</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>t1004</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>t1005</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>t1006</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>t1007</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>t1008</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>t1009</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>t1010</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>t1011</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>t1012</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>t1013</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>t1014</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>t1015</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>t1016</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>t1017</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>t1018</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>t1019</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>t1020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>t1021</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>t1022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>t1023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>t1024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>t1025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>t1026</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>t1027</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>t1028</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>t1029</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>t1030</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>t1031</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>t1101</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>t1102</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>t1103</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>t1104</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>t1105</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>t0924</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>t0925</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>t0926</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>t0927</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t0928</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t0929</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>t0930</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>t1001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>t1002</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>t1003</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>t1004</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>t1005</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>t1006</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>t1007</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>t1008</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>t1009</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>t1010</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>t1011</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>t1012</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>t1013</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>t1014</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>t1015</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>t1016</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>t1017</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>t1018</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>t1019</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>t1020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>t1021</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>t1022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>t1023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>t1024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>t1025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>t1026</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>t1027</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>t1028</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>t1029</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>t1030</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>t1031</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>t1101</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>t1102</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>t1103</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>t1104</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>t1105</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>THD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>t0924</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>t0925</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>t0926</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>t0927</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t0928</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t0929</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>t0930</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>t1001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>t1002</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>t1003</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>t1004</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>t1005</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>t1006</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>t1007</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>t1008</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>t1009</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>t1010</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>t1011</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>t1012</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>t1013</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>t1014</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>t1015</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>t1016</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>t1017</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>t1018</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>t1019</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>t1020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>t1021</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>t1022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>t1023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>t1024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>t1025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>t1026</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>t1027</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>t1028</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>t1029</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>t1030</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>t1031</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>t1101</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>t1102</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>t1103</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>t1104</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>t1105</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
